--- a/dados/dados_olx_valid.xlsx
+++ b/dados/dados_olx_valid.xlsx
@@ -8,72 +8,90 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iurex\Documents\Python Scripts\Git_repo\Projeto_OlxAluguel_scraping\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A127DEF0-E4D3-430F-B8B3-45501EA5F479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8188AD2C-5474-4A18-843F-9C84127D8B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$12</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Título</t>
   </si>
   <si>
+    <t>Valor</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
     <t>Datapub</t>
   </si>
   <si>
-    <t>R$ 2.000</t>
-  </si>
-  <si>
-    <t>R$ 4.200</t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Paraíso</t>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Distância do Ref (km)</t>
+  </si>
+  <si>
+    <t>Casa para aluguel, 2 quartos, 1 vaga, Padre Eustáquio - Belo Horizonte/MG</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/casa-para-aluguel-2-quartos-1-vaga-padre-eustaquio-belo-horizonte-mg-1394887116</t>
   </si>
   <si>
     <t>12/04/2025</t>
   </si>
   <si>
-    <t>R$ 1.300</t>
-  </si>
-  <si>
-    <t>R$ 2.400</t>
-  </si>
-  <si>
-    <t>R$ 3.000</t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Padre Eustáquio</t>
+    <t>Belo Horizonte</t>
+  </si>
+  <si>
+    <t>Padre Eustáquio</t>
+  </si>
+  <si>
+    <t>Casa para aluguel, 1 quarto, 1 vaga, Padre Eustáquio - Belo Horizonte/MG</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/casa-para-aluguel-1-quarto-1-vaga-padre-eustaquio-belo-horizonte-mg-1394887091</t>
+  </si>
+  <si>
+    <t>Cobertura 03 quartos para locação Bairro Liberdade</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/cobertura-03-quartos-para-locacao-bairro-liberdade-1391534120</t>
+  </si>
+  <si>
+    <t>31 de mar, 20:39</t>
+  </si>
+  <si>
+    <t>Pampulha</t>
+  </si>
+  <si>
+    <t>Apartamento para locação, 03 quartos, 01 suíte, 02 vagas, Pampulha, Belo Horizonte-MG</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/apartamento-para-locacao-03-quartos-01-suite-02-vagas-pampulha-belo-horizonte-mg-1389758339</t>
+  </si>
+  <si>
+    <t>26 de mar, 01:51</t>
   </si>
   <si>
     <t>Apartamento para Aluguel no Paquetá, BH</t>
   </si>
   <si>
-    <t>R$ 2.250</t>
-  </si>
-  <si>
     <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/apartamento-para-aluguel-no-paqueta-bh-1394999147</t>
   </si>
   <si>
-    <t>Belo Horizonte, Paquetá</t>
-  </si>
-  <si>
-    <t>R$ 2.200</t>
-  </si>
-  <si>
-    <t>R$ 3.300</t>
+    <t>Paquetá</t>
   </si>
   <si>
     <t>APARTAMENTO, 2 QUARTOS, 2 VAGAS, ALUGUEL</t>
@@ -88,91 +106,49 @@
     <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/area-privativa-para-aluguel-1-quarto-1-vaga-paqueta-belo-horizonte-mg-1394891002</t>
   </si>
   <si>
-    <t>Casa para aluguel, 2 quartos, 1 vaga, Padre Eustáquio - Belo Horizonte/MG</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/casa-para-aluguel-2-quartos-1-vaga-padre-eustaquio-belo-horizonte-mg-1394887116</t>
-  </si>
-  <si>
-    <t>Casa para aluguel, 1 quarto, 1 vaga, Padre Eustáquio - Belo Horizonte/MG</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/casa-para-aluguel-1-quarto-1-vaga-padre-eustaquio-belo-horizonte-mg-1394887091</t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Parque São Pedro (Venda Nova)</t>
+    <t>Cobertura para aluguel, 3 quartos, 1 suíte, 2 vagas, Santa Efigênia - Belo Horizonte/MG</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/cobertura-para-aluguel-3-quartos-1-suite-2-vagas-santa-efigenia-belo-horizonte-mg-1392738220</t>
+  </si>
+  <si>
+    <t>4 de abr, 15:56</t>
+  </si>
+  <si>
+    <t>Paraíso</t>
+  </si>
+  <si>
+    <t>Cobertura com 180 metros quadrados com 3 quartos em Paraíso - Belo Horizonte - MG</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/cobertura-com-180-metros-quadrados-com-3-quartos-em-paraiso-belo-horizonte-mg-1388164127</t>
+  </si>
+  <si>
+    <t>20 de mar, 12:31</t>
   </si>
   <si>
     <t>Aluga se Loja, lojas 55 metros, banheiro, Centro Comercial Palmeiras divisa Buritis em BH</t>
   </si>
   <si>
-    <t>R$ 1.950</t>
-  </si>
-  <si>
     <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/aluga-se-loja-lojas-55-metros-banheiro-centro-comercial-palmeiras-divisa-buritis-em-bh-1339776030</t>
   </si>
   <si>
-    <t>Belo Horizonte, Parque São José</t>
-  </si>
-  <si>
     <t>10 de abr, 16:02</t>
   </si>
   <si>
+    <t>Parque São José</t>
+  </si>
+  <si>
+    <t>Apartamento locação Parque São Pedro Venda Nova</t>
+  </si>
+  <si>
+    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/apartamento-locacao-parque-sao-pedro-venda-nova-1394380616</t>
+  </si>
+  <si>
     <t>10 de abr, 14:11</t>
   </si>
   <si>
-    <t>Apartamento locação Parque São Pedro Venda Nova</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/apartamento-locacao-parque-sao-pedro-venda-nova-1394380616</t>
-  </si>
-  <si>
-    <t>Belo Horizonte, Pampulha</t>
-  </si>
-  <si>
-    <t>4 de abr, 15:56</t>
-  </si>
-  <si>
-    <t>Cobertura para aluguel, 3 quartos, 1 suíte, 2 vagas, Santa Efigênia - Belo Horizonte/MG</t>
-  </si>
-  <si>
-    <t>R$ 3.580</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/cobertura-para-aluguel-3-quartos-1-suite-2-vagas-santa-efigenia-belo-horizonte-mg-1392738220</t>
-  </si>
-  <si>
-    <t>31 de mar, 20:39</t>
-  </si>
-  <si>
-    <t>Cobertura 03 quartos para locação Bairro Liberdade</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/cobertura-03-quartos-para-locacao-bairro-liberdade-1391534120</t>
-  </si>
-  <si>
-    <t>26 de mar, 01:51</t>
-  </si>
-  <si>
-    <t>Apartamento para locação, 03 quartos, 01 suíte, 02 vagas, Pampulha, Belo Horizonte-MG</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/apartamento-para-locacao-03-quartos-01-suite-02-vagas-pampulha-belo-horizonte-mg-1389758339</t>
-  </si>
-  <si>
-    <t>Cobertura com 180 metros quadrados com 3 quartos em Paraíso - Belo Horizonte - MG</t>
-  </si>
-  <si>
-    <t>https://mg.olx.com.br/belo-horizonte-e-regiao/imoveis/cobertura-com-180-metros-quadrados-com-3-quartos-em-paraiso-belo-horizonte-mg-1388164127</t>
-  </si>
-  <si>
-    <t>20 de mar, 12:31</t>
-  </si>
-  <si>
-    <t>Localizacao</t>
-  </si>
-  <si>
-    <t>Valor</t>
+    <t>Parque São Pedro (Venda Nova)</t>
   </si>
 </sst>
 </file>
@@ -535,230 +511,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="142.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1300</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>4200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>5.6097877866259394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>5.6097877866259394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C6">
+        <v>2250</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>5.0890073694200506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>3300</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>5.0890073694200506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>2400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H8">
+        <v>5.0890073694200506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3580</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>7.8510130804935923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>3300</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>7.8510130804935923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1950</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>5.3473868511434484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E12" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
+      <c r="H12">
+        <v>11.361558598161849</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E12">
-      <sortCondition ref="D1:D12"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>